--- a/public/opdrachten.xlsx
+++ b/public/opdrachten.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkbh\Documents\Curso-ai\Def-apps\Fruitautomaat\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkbh\Documents\Curso-ai\Def-apps\Fruitautomaat-R2P\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F72DF38-5D68-410D-B3DE-C963634B320E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C7B4F-4255-44A3-840C-2C6B765E8D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opdrachten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Categorie</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Extra_Punten (max 2)</t>
+  </si>
+  <si>
+    <t>Hoofdcategorie</t>
+  </si>
+  <si>
+    <t>enkel</t>
+  </si>
+  <si>
+    <t>voet</t>
+  </si>
+  <si>
+    <t>knie</t>
   </si>
 </sst>
 </file>
@@ -514,198 +526,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="81.599999999999994" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>20</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="91.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>30</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="112.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>15</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="112.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>15</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>25</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:6" ht="132.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="163.19999999999999" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>25</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>0</v>
       </c>
     </row>

--- a/public/opdrachten.xlsx
+++ b/public/opdrachten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkbh\Documents\Curso-ai\Def-apps\Fruitautomaat-R2P\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1C7B4F-4255-44A3-840C-2C6B765E8D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C39646-53BD-4A28-9BEE-280C07853C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+  <si>
+    <t>Hoofdcategorie</t>
+  </si>
   <si>
     <t>Categorie</t>
   </si>
@@ -34,114 +37,131 @@
     <t>Tijdslimiet (sec)</t>
   </si>
   <si>
+    <t>Extra_Punten (max 2)</t>
+  </si>
+  <si>
     <t>Anatomie</t>
   </si>
   <si>
-    <t>Benoem de ligamenten aan de laterale zijde van de enkel.</t>
-  </si>
-  <si>
-    <t>Lig. talofibulare anterius, Lig. talofibulare posterius, Lig. calcaneofibulare.</t>
-  </si>
-  <si>
-    <t>Welke spieren zorgen voor een plantairflexie van de voet? Noem er minstens twee.</t>
-  </si>
-  <si>
-    <t>M. gastrocnemius, M. soleus, (ook goed: M. plantaris, M. tibialis posterior).</t>
-  </si>
-  <si>
-    <t>Wat is de Latijnse benaming voor het kniegewricht en welke drie botstukken articuleren hier?</t>
-  </si>
-  <si>
-    <t>Articulatio genus. Femur, Tibia, Patella.</t>
-  </si>
-  <si>
-    <t>Casus Enkelletsel</t>
-  </si>
-  <si>
-    <t>Een patiënt komt binnen met een acuut inversietrauma van 2 dagen oud. Welke 3 vragen zijn essentieel in je anamnese?</t>
-  </si>
-  <si>
-    <t>1. Ontstaansmechanisme (hoe gebeurd?), 2. Is er een 'knap' gehoord/gevoeld?, 3. Kun je er nog op staan/lopen? (link naar Ottawa Ankle Rules).</t>
-  </si>
-  <si>
-    <t>Demonstreer de 'voorste schuiflade test' van de enkel op een medestudent.</t>
-  </si>
-  <si>
-    <t>Correcte fixatie van de tibia, correcte omvatting van de calcaneus, correcte uitvoer van de translatie naar ventraal, let op eindgevoel.</t>
-  </si>
-  <si>
-    <t>Wat zijn de 'red flags' waar je op let bij een enkelletsel die kunnen wijzen op een fractuur?</t>
-  </si>
-  <si>
-    <t>Onvermogen om 4 stappen te belasten, pijn bij palpatie van de malleoli (mediaal/lateraal over 6cm) of basis van metatarsale V.</t>
-  </si>
-  <si>
-    <t>Welk advies geef je een patiënt in de eerste 48 uur na een enkelverstuiking? Gebruik een bekende richtlijn.</t>
-  </si>
-  <si>
-    <t>PEACE &amp; LOVE of RICE (Rust, IJs, Compressie, Elevatie). Uitleg per onderdeel is vereist.</t>
-  </si>
-  <si>
-    <t>Gedrag &amp; Communicatie</t>
-  </si>
-  <si>
-    <t>Een patiënt is bang om weer te gaan sporten na een blessure. Hoe pak je dit gesprek aan? Noem 2 concrete gesprekstechnieken.</t>
-  </si>
-  <si>
-    <t>Actief luisteren (samenvatten, doorvragen), doelen stellen (kleine, haalbare stappen), psycho-educatie (uitleg over weefselherstel en 'graded exposure').</t>
-  </si>
-  <si>
-    <t>Leg aan een 10-jarig kind uit waarom het belangrijk is om oefeningen te doen voor zijn knie na een val.</t>
-  </si>
-  <si>
-    <t>Gebruik van simpele metaforen (spieren sterker maken als een superheld), focus op wat hij/zij weer wil kunnen doen (voetballen, buitenspelen).</t>
-  </si>
-  <si>
-    <t>Een patiënt is het niet eens met je behandelplan. Hoe reageer je?</t>
-  </si>
-  <si>
-    <t>Erkenning tonen voor de mening, de redenen achter het plan uitleggen (educatie), vragen naar de zorgen van de patiënt, samen zoeken naar een oplossing (shared decision making).</t>
-  </si>
-  <si>
-    <t>Extra_Punten (max 2)</t>
-  </si>
-  <si>
-    <t>Hoofdcategorie</t>
-  </si>
-  <si>
-    <t>enkel</t>
-  </si>
-  <si>
-    <t>voet</t>
-  </si>
-  <si>
-    <t>knie</t>
+    <t>Botten</t>
+  </si>
+  <si>
+    <t>Benoem de botten in de onderarm</t>
+  </si>
+  <si>
+    <t>Radius (spaakbeen) en Ulna (ellepijp)</t>
+  </si>
+  <si>
+    <t>Spieren</t>
+  </si>
+  <si>
+    <t>Welke spier zorgt voor de buiging van de elleboog?</t>
+  </si>
+  <si>
+    <t>Biceps brachii</t>
+  </si>
+  <si>
+    <t>Fysiologie</t>
+  </si>
+  <si>
+    <t>Bloedsomloop</t>
+  </si>
+  <si>
+    <t>Hoe heet de grootste slagader in het lichaam?</t>
+  </si>
+  <si>
+    <t>Aorta</t>
+  </si>
+  <si>
+    <t>Ademhaling</t>
+  </si>
+  <si>
+    <t>Welk orgaan is verantwoordelijk voor de gasuitwisseling?</t>
+  </si>
+  <si>
+    <t>Longen</t>
+  </si>
+  <si>
+    <t>Pathologie</t>
+  </si>
+  <si>
+    <t>Ziekten</t>
+  </si>
+  <si>
+    <t>Wat is de medische term voor hoge bloeddruk?</t>
+  </si>
+  <si>
+    <t>Hypertensie</t>
+  </si>
+  <si>
+    <t>Symptomen</t>
+  </si>
+  <si>
+    <t>Welk symptoom wordt gekenmerkt door een verhoogde lichaamstemperatuur?</t>
+  </si>
+  <si>
+    <t>Koorts</t>
+  </si>
+  <si>
+    <t>Farmacologie</t>
+  </si>
+  <si>
+    <t>Medicijnen</t>
+  </si>
+  <si>
+    <t>Welk type medicijn wordt gebruikt om pijn te verlichten?</t>
+  </si>
+  <si>
+    <t>Analgetica</t>
+  </si>
+  <si>
+    <t>Toediening</t>
+  </si>
+  <si>
+    <t>Via welke route wordt een injectie toegediend?</t>
+  </si>
+  <si>
+    <t>Parenteraal</t>
+  </si>
+  <si>
+    <t>Algemeen</t>
+  </si>
+  <si>
+    <t>App Uitleg</t>
+  </si>
+  <si>
+    <t>Leg het concept van deze app uit</t>
+  </si>
+  <si>
+    <t>Een fruitautomaat die willekeurig opdrachten en spelers kiest.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Dit is een test opdracht om de app te controleren</t>
+  </si>
+  <si>
+    <t>Test antwoord</t>
+  </si>
+  <si>
+    <t>Welk bot zit in de bovenarm?</t>
+  </si>
+  <si>
+    <t>Humerus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF1B1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -160,33 +180,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -526,214 +525,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>35</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="2">
-        <v>15</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="112.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="91.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="2">
-        <v>15</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="2">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="132.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="2">
-        <v>25</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
+      <c r="F12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A7:F12 A1:F5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/public/opdrachten.xlsx
+++ b/public/opdrachten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkbh\Documents\Curso-ai\Def-apps\Fruitautomaat-R2P\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C39646-53BD-4A28-9BEE-280C07853C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545CB20E-DBE2-4B31-A4F2-F6F25CF615FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Opdrachten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Hoofdcategorie</t>
   </si>
@@ -149,6 +149,72 @@
   </si>
   <si>
     <t>Humerus</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test vraag</t>
+  </si>
+  <si>
+    <t>OpdrachtType</t>
+  </si>
+  <si>
+    <t>feitenkennis</t>
+  </si>
+  <si>
+    <t>toepassing</t>
+  </si>
+  <si>
+    <t>Feitenkennis</t>
+  </si>
+  <si>
+    <t>Wat zijn de drie fases van weefselherstel?</t>
+  </si>
+  <si>
+    <t>Waarom is de ontstekingsfase belangrijk voor genezing?</t>
+  </si>
+  <si>
+    <t>Begrijpen</t>
+  </si>
+  <si>
+    <t>Demonstreer een effectieve oefening voor het versterken van de quadriceps.</t>
+  </si>
+  <si>
+    <t>Toepassing</t>
+  </si>
+  <si>
+    <t>Praktijk</t>
+  </si>
+  <si>
+    <t>Fysiotherapie</t>
+  </si>
+  <si>
+    <t>Communicatie</t>
+  </si>
+  <si>
+    <t>Tekenen</t>
+  </si>
+  <si>
+    <t>Uitleggen</t>
+  </si>
+  <si>
+    <t>Leg aan een patiënt uit wat het verschil is tussen artritis en artrose.</t>
+  </si>
+  <si>
+    <t>Teken de anatomie van het kniegewricht, inclusief de kruisbanden en menisci.</t>
+  </si>
+  <si>
+    <t>Voer een rollenspel uit waarin je een patiënt motiveert om zijn thuisoefeningen te doen.</t>
+  </si>
+  <si>
+    <t>Welke manuele techniek zou je toepassen bij een patiënt met een tenniselleboog?</t>
+  </si>
+  <si>
+    <t>Analyseer deze (fictieve) casus en stel een behandelplan op voor de eerste twee weken.</t>
+  </si>
+  <si>
+    <t>wel</t>
   </si>
 </sst>
 </file>
@@ -525,15 +591,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
+    <col min="4" max="4" width="68.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -541,19 +616,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -561,19 +639,22 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -581,19 +662,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>45</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -601,19 +685,22 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -621,19 +708,22 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>25</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -641,19 +731,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>25</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -661,19 +754,22 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -681,19 +777,22 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>15</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -701,19 +800,22 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -721,19 +823,22 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>33</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>35</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -741,19 +846,22 @@
         <v>35</v>
       </c>
       <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -761,22 +869,124 @@
         <v>38</v>
       </c>
       <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>30</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:F12 A1:F5" numberStoredAsText="1"/>
+    <ignoredError sqref="D7:G12 D1:G5 A1:B5 A7:B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/opdrachten.xlsx
+++ b/public/opdrachten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkkbh\Documents\Curso-ai\Def-apps\Fruitautomaat-R2P\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8544EF-713C-461E-A40F-90A5021B0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008F7DDE-E872-4D16-A648-943AFBCBFA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="145">
   <si>
     <t>Hoofdcategorie</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>OpdrachtType</t>
+  </si>
+  <si>
+    <t>denk aan https://youtu.be/-N5OxSz-5L0?feature=shared</t>
+  </si>
+  <si>
+    <t>voer test uit</t>
+  </si>
+  <si>
+    <t>tester</t>
   </si>
 </sst>
 </file>
@@ -814,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J222"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I22" sqref="E22:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1366,45 +1375,42 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>142</v>
+      </c>
+      <c r="E23">
+        <v>120</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24">
-        <v>42</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1418,31 +1424,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E25">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1450,19 +1456,19 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>116</v>
       </c>
       <c r="E26">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1476,28 +1482,28 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E27">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I27" t="s">
         <v>131</v>
@@ -1505,28 +1511,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
         <v>131</v>
@@ -1534,28 +1540,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
         <v>131</v>
@@ -1563,22 +1569,22 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1592,19 +1598,19 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E31">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -1613,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
         <v>131</v>
@@ -1621,22 +1627,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E32">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1650,28 +1656,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I33" t="s">
         <v>131</v>
@@ -1679,28 +1685,28 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E34">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
         <v>45</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-      <c r="H34" t="s">
-        <v>126</v>
       </c>
       <c r="I34" t="s">
         <v>131</v>
@@ -1708,28 +1714,28 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E35">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I35" t="s">
         <v>131</v>
@@ -1737,28 +1743,28 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D36" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E36">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I36" t="s">
         <v>131</v>
@@ -1766,28 +1772,28 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E37">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
         <v>131</v>
@@ -1795,22 +1801,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1824,28 +1830,28 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E39">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I39" t="s">
         <v>131</v>
@@ -1853,28 +1859,28 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E40">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
         <v>131</v>
@@ -1882,28 +1888,28 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E41">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I41" t="s">
         <v>131</v>
@@ -1914,19 +1920,19 @@
         <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D42" t="s">
         <v>119</v>
       </c>
       <c r="E42">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1943,16 +1949,16 @@
         <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D43" t="s">
         <v>119</v>
       </c>
       <c r="E43">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -1969,28 +1975,28 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E44">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I44" t="s">
         <v>131</v>
@@ -1998,28 +2004,28 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E45">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I45" t="s">
         <v>131</v>
@@ -2027,19 +2033,19 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D46" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E46">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -2059,19 +2065,19 @@
         <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
         <v>119</v>
       </c>
       <c r="E47">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2085,19 +2091,19 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E48">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2106,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I48" t="s">
         <v>131</v>
@@ -2120,13 +2126,13 @@
         <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>116</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2143,28 +2149,28 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I50" t="s">
         <v>131</v>
@@ -2172,19 +2178,19 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E51">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2193,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s">
         <v>131</v>
@@ -2204,19 +2210,19 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>116</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -2236,16 +2242,16 @@
         <v>34</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
         <v>116</v>
       </c>
       <c r="E53">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2265,13 +2271,13 @@
         <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
         <v>116</v>
       </c>
       <c r="E54">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2294,13 +2300,13 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
         <v>116</v>
       </c>
       <c r="E55">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2317,28 +2323,28 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E56">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I56" t="s">
         <v>131</v>
@@ -2346,28 +2352,28 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E57">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
         <v>131</v>
@@ -2381,16 +2387,16 @@
         <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D58" t="s">
         <v>116</v>
       </c>
       <c r="E58">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -2407,19 +2413,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
         <v>116</v>
       </c>
       <c r="E59">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2433,19 +2439,19 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E60">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2454,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I60" t="s">
         <v>131</v>
@@ -2462,28 +2468,28 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D61" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E61">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I61" t="s">
         <v>131</v>
@@ -2497,16 +2503,16 @@
         <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
         <v>116</v>
       </c>
       <c r="E62">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -2526,16 +2532,16 @@
         <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>116</v>
       </c>
       <c r="E63">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -2555,16 +2561,16 @@
         <v>33</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D64" t="s">
         <v>116</v>
       </c>
       <c r="E64">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -2578,28 +2584,28 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C65" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E65">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I65" t="s">
         <v>131</v>
@@ -2607,19 +2613,19 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E66">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2628,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I66" t="s">
         <v>131</v>
@@ -2636,19 +2642,19 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E67">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2657,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I67" t="s">
         <v>131</v>
@@ -2665,28 +2671,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E68">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I68" t="s">
         <v>131</v>
@@ -2697,19 +2703,19 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D69" t="s">
         <v>116</v>
       </c>
       <c r="E69">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2729,16 +2735,16 @@
         <v>33</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D70" t="s">
         <v>116</v>
       </c>
       <c r="E70">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -2758,16 +2764,16 @@
         <v>33</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s">
         <v>116</v>
       </c>
       <c r="E71">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -2781,19 +2787,19 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E72">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2802,7 +2808,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I72" t="s">
         <v>131</v>
@@ -2810,28 +2816,28 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E73">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I73" t="s">
         <v>131</v>
@@ -2845,13 +2851,13 @@
         <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
         <v>116</v>
       </c>
       <c r="E74">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2874,16 +2880,16 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D75" t="s">
         <v>116</v>
       </c>
       <c r="E75">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -2903,16 +2909,16 @@
         <v>34</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D76" t="s">
         <v>116</v>
       </c>
       <c r="E76">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -2932,16 +2938,16 @@
         <v>34</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D77" t="s">
         <v>116</v>
       </c>
       <c r="E77">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2958,19 +2964,19 @@
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
         <v>116</v>
       </c>
       <c r="E78">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -2987,19 +2993,19 @@
         <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D79" t="s">
         <v>116</v>
       </c>
       <c r="E79">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3019,16 +3025,16 @@
         <v>34</v>
       </c>
       <c r="C80" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
         <v>116</v>
       </c>
       <c r="E80">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -3045,19 +3051,19 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
         <v>116</v>
       </c>
       <c r="E81">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -3077,16 +3083,16 @@
         <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
         <v>116</v>
       </c>
       <c r="E82">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -3103,19 +3109,19 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
         <v>116</v>
       </c>
       <c r="E83">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3135,13 +3141,13 @@
         <v>34</v>
       </c>
       <c r="C84" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
         <v>116</v>
       </c>
       <c r="E84">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3161,19 +3167,19 @@
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D85" t="s">
         <v>116</v>
       </c>
       <c r="E85">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3193,16 +3199,16 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
         <v>116</v>
       </c>
       <c r="E86">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -3222,16 +3228,16 @@
         <v>33</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87" t="s">
         <v>116</v>
       </c>
       <c r="E87">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -3248,19 +3254,19 @@
         <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D88" t="s">
         <v>116</v>
       </c>
       <c r="E88">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3274,28 +3280,28 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E89">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I89" t="s">
         <v>131</v>
@@ -3303,28 +3309,28 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E90">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I90" t="s">
         <v>131</v>
@@ -3332,28 +3338,28 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C91" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E91">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
         <v>131</v>
@@ -3361,19 +3367,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E92">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -3382,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I92" t="s">
         <v>131</v>
@@ -3396,16 +3402,16 @@
         <v>37</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="D93" t="s">
         <v>119</v>
       </c>
       <c r="E93">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3425,13 +3431,13 @@
         <v>37</v>
       </c>
       <c r="C94" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D94" t="s">
         <v>119</v>
       </c>
       <c r="E94">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3451,19 +3457,19 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D95" t="s">
         <v>119</v>
       </c>
       <c r="E95">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -3477,28 +3483,28 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C96" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E96">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I96" t="s">
         <v>131</v>
@@ -3506,19 +3512,19 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C97" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E97">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3527,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I97" t="s">
         <v>131</v>
@@ -3535,25 +3541,25 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E98">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>45</v>
@@ -3564,48 +3570,48 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C99" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E99">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I99" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E100">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3614,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -3625,25 +3631,25 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E101">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I101" t="s">
         <v>131</v>
@@ -3651,28 +3657,28 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D102" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E102">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I102" t="s">
         <v>131</v>
@@ -3680,22 +3686,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D103" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E103">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -3712,25 +3718,25 @@
         <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C104" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E104">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I104" t="s">
         <v>131</v>
@@ -3738,22 +3744,22 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E105">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3767,19 +3773,19 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C106" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E106">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3788,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I106" t="s">
         <v>131</v>
@@ -3799,19 +3805,19 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D107" t="s">
         <v>116</v>
       </c>
       <c r="E107">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -3828,19 +3834,19 @@
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
         <v>116</v>
       </c>
       <c r="E108">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3854,19 +3860,19 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D109" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E109">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -3875,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I109" t="s">
         <v>131</v>
@@ -3883,19 +3889,19 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E110">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -3904,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I110" t="s">
         <v>131</v>
@@ -3918,16 +3924,16 @@
         <v>34</v>
       </c>
       <c r="C111" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D111" t="s">
         <v>116</v>
       </c>
       <c r="E111">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -3941,19 +3947,19 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E112">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3962,7 +3968,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I112" t="s">
         <v>131</v>
@@ -3973,19 +3979,19 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C113" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="D113" t="s">
         <v>119</v>
       </c>
       <c r="E113">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3999,28 +4005,28 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E114">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>1</v>
       </c>
       <c r="H114" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I114" t="s">
         <v>131</v>
@@ -4031,19 +4037,19 @@
         <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C115" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D115" t="s">
         <v>116</v>
       </c>
       <c r="E115">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4057,19 +4063,19 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C116" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E116">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4078,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I116" t="s">
         <v>131</v>
@@ -4086,19 +4092,19 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E117">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -4107,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I117" t="s">
         <v>131</v>
@@ -4115,28 +4121,28 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E118">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I118" t="s">
         <v>131</v>
@@ -4144,19 +4150,19 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C119" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E119">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -4165,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I119" t="s">
         <v>131</v>
@@ -4179,13 +4185,13 @@
         <v>33</v>
       </c>
       <c r="C120" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D120" t="s">
         <v>116</v>
       </c>
       <c r="E120">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -4205,19 +4211,19 @@
         <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
         <v>116</v>
       </c>
       <c r="E121">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -4237,13 +4243,13 @@
         <v>34</v>
       </c>
       <c r="C122" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D122" t="s">
         <v>116</v>
       </c>
       <c r="E122">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -4266,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D123" t="s">
         <v>116</v>
@@ -4292,7 +4298,7 @@
         <v>10</v>
       </c>
       <c r="B124" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C124" t="s">
         <v>97</v>
@@ -4301,10 +4307,10 @@
         <v>116</v>
       </c>
       <c r="E124">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -4318,28 +4324,28 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E125">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125">
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I125" t="s">
         <v>131</v>
@@ -4347,28 +4353,28 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C126" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D126" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E126">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126">
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I126" t="s">
         <v>131</v>
@@ -4376,28 +4382,28 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C127" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D127" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E127">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127">
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I127" t="s">
         <v>131</v>
@@ -4408,19 +4414,19 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C128" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D128" t="s">
         <v>119</v>
       </c>
       <c r="E128">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -4434,28 +4440,28 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D129" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E129">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I129" t="s">
         <v>131</v>
@@ -4469,16 +4475,16 @@
         <v>33</v>
       </c>
       <c r="C130" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D130" t="s">
         <v>116</v>
       </c>
       <c r="E130">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G130">
         <v>1</v>
@@ -4498,16 +4504,16 @@
         <v>33</v>
       </c>
       <c r="C131" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D131" t="s">
         <v>116</v>
       </c>
       <c r="E131">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -4524,19 +4530,19 @@
         <v>10</v>
       </c>
       <c r="B132" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C132" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
         <v>116</v>
       </c>
       <c r="E132">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -4556,16 +4562,16 @@
         <v>34</v>
       </c>
       <c r="C133" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D133" t="s">
         <v>116</v>
       </c>
       <c r="E133">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -4582,19 +4588,19 @@
         <v>10</v>
       </c>
       <c r="B134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" t="s">
+        <v>116</v>
+      </c>
+      <c r="E134">
         <v>33</v>
       </c>
-      <c r="C134" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" t="s">
-        <v>116</v>
-      </c>
-      <c r="E134">
-        <v>74</v>
-      </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -4614,13 +4620,13 @@
         <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D135" t="s">
         <v>116</v>
       </c>
       <c r="E135">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4643,16 +4649,16 @@
         <v>33</v>
       </c>
       <c r="C136" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D136" t="s">
         <v>116</v>
       </c>
       <c r="E136">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -4666,19 +4672,19 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C137" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D137" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E137">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -4687,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I137" t="s">
         <v>131</v>
@@ -4695,28 +4701,28 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D138" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E138">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I138" t="s">
         <v>131</v>
@@ -4727,16 +4733,16 @@
         <v>10</v>
       </c>
       <c r="B139" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C139" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="D139" t="s">
         <v>116</v>
       </c>
       <c r="E139">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="F139">
         <v>2</v>
@@ -4756,10 +4762,10 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C140" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D140" t="s">
         <v>116</v>
@@ -4768,7 +4774,7 @@
         <v>47</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -4785,19 +4791,19 @@
         <v>10</v>
       </c>
       <c r="B141" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C141" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D141" t="s">
         <v>116</v>
       </c>
       <c r="E141">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -4814,19 +4820,19 @@
         <v>10</v>
       </c>
       <c r="B142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C142" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D142" t="s">
         <v>116</v>
       </c>
       <c r="E142">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -4846,13 +4852,13 @@
         <v>34</v>
       </c>
       <c r="C143" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D143" t="s">
         <v>116</v>
       </c>
       <c r="E143">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -4875,16 +4881,16 @@
         <v>34</v>
       </c>
       <c r="C144" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D144" t="s">
         <v>116</v>
       </c>
       <c r="E144">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -4901,16 +4907,16 @@
         <v>10</v>
       </c>
       <c r="B145" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D145" t="s">
         <v>116</v>
       </c>
       <c r="E145">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -4930,19 +4936,19 @@
         <v>10</v>
       </c>
       <c r="B146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C146" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D146" t="s">
         <v>116</v>
       </c>
       <c r="E146">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G146">
         <v>1</v>
@@ -4962,16 +4968,16 @@
         <v>34</v>
       </c>
       <c r="C147" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D147" t="s">
         <v>116</v>
       </c>
       <c r="E147">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -4988,19 +4994,19 @@
         <v>10</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D148" t="s">
         <v>116</v>
       </c>
       <c r="E148">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -5020,13 +5026,13 @@
         <v>33</v>
       </c>
       <c r="C149" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D149" t="s">
         <v>116</v>
       </c>
       <c r="E149">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -5046,19 +5052,19 @@
         <v>10</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D150" t="s">
         <v>116</v>
       </c>
       <c r="E150">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -5075,16 +5081,16 @@
         <v>10</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D151" t="s">
         <v>116</v>
       </c>
       <c r="E151">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -5107,16 +5113,16 @@
         <v>33</v>
       </c>
       <c r="C152" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D152" t="s">
         <v>116</v>
       </c>
       <c r="E152">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -5133,16 +5139,16 @@
         <v>10</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C153" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D153" t="s">
         <v>116</v>
       </c>
       <c r="E153">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -5159,19 +5165,19 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C154" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D154" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E154">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -5180,7 +5186,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I154" t="s">
         <v>131</v>
@@ -5188,19 +5194,19 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="D155" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E155">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -5209,10 +5215,10 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I155" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -5220,19 +5226,19 @@
         <v>15</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D156" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E156">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -5241,33 +5247,33 @@
         <v>127</v>
       </c>
       <c r="I156" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B157" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C157" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D157" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E157">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I157" t="s">
         <v>131</v>
@@ -5281,16 +5287,16 @@
         <v>33</v>
       </c>
       <c r="C158" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D158" t="s">
         <v>116</v>
       </c>
       <c r="E158">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -5307,16 +5313,16 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C159" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
         <v>116</v>
       </c>
       <c r="E159">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5333,28 +5339,28 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C160" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D160" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E160">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I160" t="s">
         <v>131</v>
@@ -5365,16 +5371,16 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C161" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D161" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E161">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -5383,7 +5389,7 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="I161" t="s">
         <v>131</v>
@@ -5391,28 +5397,28 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C162" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D162" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E162">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I162" t="s">
         <v>131</v>
@@ -5426,16 +5432,16 @@
         <v>33</v>
       </c>
       <c r="C163" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D163" t="s">
         <v>116</v>
       </c>
       <c r="E163">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -5449,19 +5455,19 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D164" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E164">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -5470,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I164" t="s">
         <v>131</v>
@@ -5478,28 +5484,28 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D165" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E165">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G165">
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I165" t="s">
         <v>131</v>
@@ -5507,19 +5513,19 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C166" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D166" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E166">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -5542,16 +5548,16 @@
         <v>34</v>
       </c>
       <c r="C167" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D167" t="s">
         <v>116</v>
       </c>
       <c r="E167">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -5571,16 +5577,16 @@
         <v>34</v>
       </c>
       <c r="C168" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="D168" t="s">
         <v>116</v>
       </c>
       <c r="E168">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -5594,28 +5600,28 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D169" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E169">
         <v>90</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G169">
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I169" t="s">
         <v>131</v>
@@ -5623,28 +5629,28 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C170" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D170" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E170">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G170">
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I170" t="s">
         <v>131</v>
@@ -5652,28 +5658,28 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D171" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E171">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G171">
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I171" t="s">
         <v>131</v>
@@ -5681,19 +5687,19 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C172" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D172" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E172">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F172">
         <v>2</v>
@@ -5702,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I172" t="s">
         <v>131</v>
@@ -5713,19 +5719,19 @@
         <v>10</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D173" t="s">
         <v>116</v>
       </c>
       <c r="E173">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -5742,16 +5748,16 @@
         <v>10</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C174" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D174" t="s">
         <v>116</v>
       </c>
       <c r="E174">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -5774,16 +5780,16 @@
         <v>34</v>
       </c>
       <c r="C175" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D175" t="s">
         <v>116</v>
       </c>
       <c r="E175">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -5797,16 +5803,16 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C176" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D176" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E176">
         <v>55</v>
@@ -5818,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I176" t="s">
         <v>131</v>
@@ -5826,28 +5832,28 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C177" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D177" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E177">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G177">
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I177" t="s">
         <v>131</v>
@@ -5855,22 +5861,22 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C178" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D178" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E178">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -5884,19 +5890,19 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C179" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D179" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E179">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5913,28 +5919,28 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C180" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D180" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E180">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G180">
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I180" t="s">
         <v>131</v>
@@ -5942,22 +5948,22 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C181" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D181" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E181">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G181">
         <v>1</v>
@@ -5974,7 +5980,7 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C182" t="s">
         <v>73</v>
@@ -5983,7 +5989,7 @@
         <v>119</v>
       </c>
       <c r="E182">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -6000,19 +6006,19 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C183" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D183" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E183">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -6021,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I183" t="s">
         <v>131</v>
@@ -6032,16 +6038,16 @@
         <v>10</v>
       </c>
       <c r="B184" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C184" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D184" t="s">
         <v>116</v>
       </c>
       <c r="E184">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -6061,19 +6067,19 @@
         <v>10</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C185" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D185" t="s">
         <v>116</v>
       </c>
       <c r="E185">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -6093,13 +6099,13 @@
         <v>33</v>
       </c>
       <c r="C186" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D186" t="s">
         <v>116</v>
       </c>
       <c r="E186">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -6122,16 +6128,16 @@
         <v>33</v>
       </c>
       <c r="C187" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D187" t="s">
         <v>116</v>
       </c>
       <c r="E187">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
         <v>1</v>
@@ -6148,16 +6154,16 @@
         <v>10</v>
       </c>
       <c r="B188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C188" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D188" t="s">
         <v>116</v>
       </c>
       <c r="E188">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -6174,28 +6180,28 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C189" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D189" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E189">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G189">
         <v>1</v>
       </c>
       <c r="H189" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I189" t="s">
         <v>131</v>
@@ -6203,22 +6209,22 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C190" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D190" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E190">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -6232,28 +6238,28 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
+        <v>44</v>
+      </c>
+      <c r="C191" t="s">
+        <v>86</v>
+      </c>
+      <c r="D191" t="s">
+        <v>124</v>
+      </c>
+      <c r="E191">
         <v>34</v>
       </c>
-      <c r="C191" t="s">
-        <v>93</v>
-      </c>
-      <c r="D191" t="s">
-        <v>116</v>
-      </c>
-      <c r="E191">
-        <v>73</v>
-      </c>
       <c r="F191">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I191" t="s">
         <v>131</v>
@@ -6261,19 +6267,19 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C192" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D192" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E192">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F192">
         <v>2</v>
@@ -6282,7 +6288,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I192" t="s">
         <v>131</v>
@@ -6290,28 +6296,28 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C193" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D193" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E193">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G193">
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I193" t="s">
         <v>131</v>
@@ -6319,19 +6325,19 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C194" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D194" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E194">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -6340,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="H194" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I194" t="s">
         <v>131</v>
@@ -6351,7 +6357,7 @@
         <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C195" t="s">
         <v>77</v>
@@ -6360,7 +6366,7 @@
         <v>119</v>
       </c>
       <c r="E195">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -6383,16 +6389,16 @@
         <v>43</v>
       </c>
       <c r="C196" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D196" t="s">
         <v>119</v>
       </c>
       <c r="E196">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -6406,19 +6412,19 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B197" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C197" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D197" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E197">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -6427,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="H197" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I197" t="s">
         <v>131</v>
@@ -6441,16 +6447,16 @@
         <v>34</v>
       </c>
       <c r="C198" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D198" t="s">
         <v>116</v>
       </c>
       <c r="E198">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -6470,16 +6476,16 @@
         <v>34</v>
       </c>
       <c r="C199" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D199" t="s">
         <v>116</v>
       </c>
       <c r="E199">
-        <v>79</v>
+        <v>31</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -6499,13 +6505,13 @@
         <v>34</v>
       </c>
       <c r="C200" t="s">
+        <v>96</v>
+      </c>
+      <c r="D200" t="s">
+        <v>116</v>
+      </c>
+      <c r="E200">
         <v>79</v>
-      </c>
-      <c r="D200" t="s">
-        <v>116</v>
-      </c>
-      <c r="E200">
-        <v>46</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -6522,28 +6528,28 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C201" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D201" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E201">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G201">
         <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I201" t="s">
         <v>131</v>
@@ -6551,28 +6557,28 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B202" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C202" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D202" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E202">
+        <v>31</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
         <v>45</v>
-      </c>
-      <c r="F202">
-        <v>2</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-      <c r="H202" t="s">
-        <v>125</v>
       </c>
       <c r="I202" t="s">
         <v>131</v>
@@ -6583,19 +6589,19 @@
         <v>10</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C203" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D203" t="s">
         <v>116</v>
       </c>
       <c r="E203">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G203">
         <v>1</v>
@@ -6609,28 +6615,28 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C204" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D204" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E204">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204">
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I204" t="s">
         <v>131</v>
@@ -6638,28 +6644,28 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C205" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D205" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E205">
         <v>72</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G205">
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I205" t="s">
         <v>131</v>
@@ -6670,7 +6676,7 @@
         <v>10</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C206" t="s">
         <v>85</v>
@@ -6679,10 +6685,10 @@
         <v>116</v>
       </c>
       <c r="E206">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -6702,16 +6708,16 @@
         <v>33</v>
       </c>
       <c r="C207" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D207" t="s">
         <v>116</v>
       </c>
       <c r="E207">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -6728,16 +6734,16 @@
         <v>10</v>
       </c>
       <c r="B208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D208" t="s">
         <v>116</v>
       </c>
       <c r="E208">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -6754,19 +6760,19 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C209" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D209" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E209">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -6775,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="I209" t="s">
         <v>131</v>
@@ -6783,19 +6789,19 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C210" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D210" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E210">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="F210">
         <v>2</v>
@@ -6804,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="I210" t="s">
         <v>131</v>
@@ -6815,16 +6821,16 @@
         <v>10</v>
       </c>
       <c r="B211" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C211" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D211" t="s">
         <v>116</v>
       </c>
       <c r="E211">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F211">
         <v>2</v>
@@ -6847,16 +6853,16 @@
         <v>34</v>
       </c>
       <c r="C212" t="s">
+        <v>89</v>
+      </c>
+      <c r="D212" t="s">
+        <v>116</v>
+      </c>
+      <c r="E212">
         <v>69</v>
       </c>
-      <c r="D212" t="s">
-        <v>116</v>
-      </c>
-      <c r="E212">
-        <v>67</v>
-      </c>
       <c r="F212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -6876,16 +6882,16 @@
         <v>34</v>
       </c>
       <c r="C213" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D213" t="s">
         <v>116</v>
       </c>
       <c r="E213">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G213">
         <v>1</v>
@@ -6902,7 +6908,7 @@
         <v>10</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C214" t="s">
         <v>81</v>
@@ -6911,10 +6917,10 @@
         <v>116</v>
       </c>
       <c r="E214">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
         <v>1</v>
@@ -6931,19 +6937,19 @@
         <v>10</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C215" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D215" t="s">
         <v>116</v>
       </c>
       <c r="E215">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G215">
         <v>1</v>
@@ -6960,16 +6966,16 @@
         <v>10</v>
       </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C216" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D216" t="s">
         <v>116</v>
       </c>
       <c r="E216">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -6992,13 +6998,13 @@
         <v>33</v>
       </c>
       <c r="C217" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D217" t="s">
         <v>116</v>
       </c>
       <c r="E217">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="F217">
         <v>0</v>
@@ -7021,16 +7027,16 @@
         <v>33</v>
       </c>
       <c r="C218" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D218" t="s">
         <v>116</v>
       </c>
       <c r="E218">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -7044,25 +7050,31 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C219" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="D219" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="E219">
+        <v>85</v>
+      </c>
+      <c r="F219">
+        <v>2</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I219" t="s">
         <v>131</v>
-      </c>
-      <c r="J219" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.3">
@@ -7073,7 +7085,7 @@
         <v>28</v>
       </c>
       <c r="C220" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D220" t="s">
         <v>112</v>
@@ -7085,7 +7097,7 @@
         <v>131</v>
       </c>
       <c r="J220" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
@@ -7096,7 +7108,7 @@
         <v>28</v>
       </c>
       <c r="C221" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D221" t="s">
         <v>112</v>
@@ -7108,7 +7120,7 @@
         <v>131</v>
       </c>
       <c r="J221" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
@@ -7131,6 +7143,29 @@
         <v>131</v>
       </c>
       <c r="J222" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223" t="s">
+        <v>28</v>
+      </c>
+      <c r="C223" t="s">
+        <v>140</v>
+      </c>
+      <c r="D223" t="s">
+        <v>112</v>
+      </c>
+      <c r="H223" t="s">
+        <v>130</v>
+      </c>
+      <c r="I223" t="s">
+        <v>131</v>
+      </c>
+      <c r="J223" t="s">
         <v>137</v>
       </c>
     </row>
